--- a/src/resources/ExcelFile.xlsx
+++ b/src/resources/ExcelFile.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GAED\src\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Loginsheet" sheetId="1" r:id="rId1"/>
+    <sheet name="ValidLoginsheet" sheetId="1" r:id="rId1"/>
+    <sheet name="InvalidLoginEmail" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,25 +20,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>aditya@gmail.com</t>
-  </si>
-  <si>
-    <t>Aditya</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>username</t>
   </si>
   <si>
-    <t>password</t>
+    <t>OTP</t>
+  </si>
+  <si>
+    <t>adityapawar@yopmail.com</t>
+  </si>
+  <si>
+    <t>rohan@yopmail.com</t>
+  </si>
+  <si>
+    <t>InvalidLoginEmail</t>
+  </si>
+  <si>
+    <t>aditya."gmail.</t>
+  </si>
+  <si>
+    <t>test"gmail</t>
+  </si>
+  <si>
+    <t>testgmail.com</t>
+  </si>
+  <si>
+    <t>testing@gmail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +74,12 @@
       <color rgb="FF067D17"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF067D17"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,10 +103,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -153,7 +173,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -188,7 +208,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -365,7 +385,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -373,40 +393,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A426" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.44140625" customWidth="1"/>
-    <col min="2" max="2" width="58.33203125" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="58.28515625" customWidth="1"/>
     <col min="3" max="3" width="52" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/resources/ExcelFile.xlsx
+++ b/src/resources/ExcelFile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLoginsheet" sheetId="1" r:id="rId1"/>
@@ -31,22 +31,22 @@
     <t>adityapawar@yopmail.com</t>
   </si>
   <si>
+    <t>InvalidLoginEmail</t>
+  </si>
+  <si>
+    <t>aditya."gmail.</t>
+  </si>
+  <si>
+    <t>test"gmail</t>
+  </si>
+  <si>
+    <t>testgmail.com</t>
+  </si>
+  <si>
+    <t>testing@gmail</t>
+  </si>
+  <si>
     <t>rohan@yopmail.com</t>
-  </si>
-  <si>
-    <t>InvalidLoginEmail</t>
-  </si>
-  <si>
-    <t>aditya."gmail.</t>
-  </si>
-  <si>
-    <t>test"gmail</t>
-  </si>
-  <si>
-    <t>testgmail.com</t>
-  </si>
-  <si>
-    <t>testing@gmail</t>
   </si>
 </sst>
 </file>
@@ -385,7 +385,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -395,8 +395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -422,7 +422,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -439,7 +439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
@@ -450,27 +450,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/resources/ExcelFile.xlsx
+++ b/src/resources/ExcelFile.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLoginsheet" sheetId="1" r:id="rId1"/>
     <sheet name="InvalidLoginEmail" sheetId="2" r:id="rId2"/>
+    <sheet name="signupdata" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>username</t>
   </si>
@@ -47,6 +48,24 @@
   </si>
   <si>
     <t>rohan@yopmail.com</t>
+  </si>
+  <si>
+    <t>fname</t>
+  </si>
+  <si>
+    <t>lname</t>
+  </si>
+  <si>
+    <t>consumerEmail</t>
+  </si>
+  <si>
+    <t>aditya</t>
+  </si>
+  <si>
+    <t>Pawar</t>
+  </si>
+  <si>
+    <t>adityapawarsignup@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -385,7 +404,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -395,7 +414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -480,4 +499,48 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="38.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/src/resources/ExcelFile.xlsx
+++ b/src/resources/ExcelFile.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GAED\src\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLoginsheet" sheetId="1" r:id="rId1"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>username</t>
   </si>
@@ -45,9 +50,6 @@
   </si>
   <si>
     <t>testing@gmail</t>
-  </si>
-  <si>
-    <t>rohan@yopmail.com</t>
   </si>
   <si>
     <t>fname</t>
@@ -404,7 +406,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -412,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -439,18 +441,12 @@
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -505,7 +501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -516,24 +512,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/resources/ExcelFile.xlsx
+++ b/src/resources/ExcelFile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLoginsheet" sheetId="1" r:id="rId1"/>
@@ -416,14 +416,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" customWidth="1"/>
-    <col min="2" max="2" width="58.28515625" customWidth="1"/>
+    <col min="1" max="1" width="30.44140625" customWidth="1"/>
+    <col min="2" max="2" width="58.33203125" customWidth="1"/>
     <col min="3" max="3" width="52" customWidth="1"/>
   </cols>
   <sheetData>
@@ -454,16 +454,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" ht="15">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -505,9 +505,9 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="38.42578125" customWidth="1"/>
+    <col min="3" max="3" width="38.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/src/resources/ExcelFile.xlsx
+++ b/src/resources/ExcelFile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLoginsheet" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,6 @@
     <t>OTP</t>
   </si>
   <si>
-    <t>adityapawar@yopmail.com</t>
-  </si>
-  <si>
     <t>InvalidLoginEmail</t>
   </si>
   <si>
@@ -68,6 +65,9 @@
   </si>
   <si>
     <t>adityapawarsignup@yopmail.com</t>
+  </si>
+  <si>
+    <t>adityapawar123@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -417,7 +417,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -437,7 +437,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2"/>
     </row>
@@ -454,7 +454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
@@ -465,27 +465,27 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15">
       <c r="A1" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -501,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -512,24 +512,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/resources/ExcelFile.xlsx
+++ b/src/resources/ExcelFile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLoginsheet" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,6 @@
     <t>OTP</t>
   </si>
   <si>
-    <t>adityapawar@yopmail.com</t>
-  </si>
-  <si>
     <t>InvalidLoginEmail</t>
   </si>
   <si>
@@ -68,6 +65,9 @@
   </si>
   <si>
     <t>adityapawarsignup@yopmail.com</t>
+  </si>
+  <si>
+    <t>adityapawar123@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -416,7 +416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -437,7 +437,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2"/>
     </row>
@@ -465,27 +465,27 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15">
       <c r="A1" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -501,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -512,24 +512,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/resources/ExcelFile.xlsx
+++ b/src/resources/ExcelFile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLoginsheet" sheetId="1" r:id="rId1"/>
@@ -417,13 +417,13 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" customWidth="1"/>
-    <col min="2" max="2" width="58.28515625" customWidth="1"/>
+    <col min="1" max="1" width="30.44140625" customWidth="1"/>
+    <col min="2" max="2" width="58.33203125" customWidth="1"/>
     <col min="3" max="3" width="52" customWidth="1"/>
   </cols>
   <sheetData>
@@ -458,12 +458,12 @@
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" ht="15">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -505,9 +505,9 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="38.42578125" customWidth="1"/>
+    <col min="3" max="3" width="38.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/src/resources/ExcelFile.xlsx
+++ b/src/resources/ExcelFile.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLoginsheet" sheetId="1" r:id="rId1"/>
     <sheet name="InvalidLoginEmail" sheetId="2" r:id="rId2"/>
     <sheet name="signupdata" sheetId="3" r:id="rId3"/>
+    <sheet name="VendorEmail" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>username</t>
   </si>
@@ -68,6 +69,12 @@
   </si>
   <si>
     <t>adityapawarsignup@yopmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vendor Email </t>
+  </si>
+  <si>
+    <t>testone@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -416,7 +423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -539,4 +546,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/resources/ExcelFile.xlsx
+++ b/src/resources/ExcelFile.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLoginsheet" sheetId="1" r:id="rId1"/>
     <sheet name="InvalidLoginEmail" sheetId="2" r:id="rId2"/>
     <sheet name="signupdata" sheetId="3" r:id="rId3"/>
+    <sheet name="VendorEmail" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>username</t>
   </si>
@@ -34,6 +35,9 @@
     <t>OTP</t>
   </si>
   <si>
+    <t>adityapawar@yopmail.com</t>
+  </si>
+  <si>
     <t>InvalidLoginEmail</t>
   </si>
   <si>
@@ -67,7 +71,10 @@
     <t>adityapawarsignup@yopmail.com</t>
   </si>
   <si>
-    <t>adityapawar123@yopmail.com</t>
+    <t xml:space="preserve">Vendor Email </t>
+  </si>
+  <si>
+    <t>testone@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -437,7 +444,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2"/>
     </row>
@@ -465,27 +472,27 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15">
       <c r="A1" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -501,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -512,24 +519,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -539,4 +546,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>